--- a/HW_9_Form_testing.xlsx
+++ b/HW_9_Form_testing.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -10,14 +10,263 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="impr" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="65">
+  <si>
+    <t>MacOS 15.</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>titlle</t>
+  </si>
+  <si>
+    <t>precondition</t>
+  </si>
+  <si>
+    <t>inputs</t>
+  </si>
+  <si>
+    <t>er</t>
+  </si>
+  <si>
+    <t>ar</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>bug</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Остальные пооля заполнены валидными дданными</t>
+  </si>
+  <si>
+    <t>минимум 2 символа</t>
+  </si>
+  <si>
+    <t>Va</t>
+  </si>
+  <si>
+    <t>Succes message</t>
+  </si>
+  <si>
+    <t>Error message: invalid password</t>
+  </si>
+  <si>
+    <t>faill</t>
+  </si>
+  <si>
+    <t>id_11</t>
+  </si>
+  <si>
+    <t>Name: минимум 2 символа</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>Surname</t>
+  </si>
+  <si>
+    <t>Общие проверки</t>
+  </si>
+  <si>
+    <t>Тайтл вкладки в браузере имеет наименование "Форма регистрации"</t>
+  </si>
+  <si>
+    <t>Присутствует кнопка "Submit"</t>
+  </si>
+  <si>
+    <t>Кнопка "Submit" меняет цвет при наведении</t>
+  </si>
+  <si>
+    <t>Поле surname не является обязательным</t>
+  </si>
+  <si>
+    <t>Поля Name, E-mail, Password являются обязательными</t>
+  </si>
+  <si>
+    <t>При удачной регистрации отображается сообщение об удачной регистраци</t>
+  </si>
+  <si>
+    <t>При удачной отправке  заполненные формы очищаются</t>
+  </si>
+  <si>
+    <t>При обновлении формы заполненные данные очищаются</t>
+  </si>
+  <si>
+    <t>При сжатии окна браузера до минимально поля отображаются и доступны для ввода. Кнопка Submit доступна и отображается.</t>
+  </si>
+  <si>
+    <t>После обновления страницы должно исчезать сообщение об ошибке.</t>
+  </si>
+  <si>
+    <t>При фокусе на поле исчезает плейсхолдеры</t>
+  </si>
+  <si>
+    <t>Плейсхолдеры имеют вид: Enter your name, Enter your Surname, Enter your email adress, Enter your password</t>
+  </si>
+  <si>
+    <t>При фокусе на поле, поле подсвечивается по контуру голубым цветом</t>
+  </si>
+  <si>
+    <t>Сообщение об ошибке имеет вид   "Error: Error: All Fields are Required"</t>
+  </si>
+  <si>
+    <t>Текст кнопки Submit расположен по центру кнопки</t>
+  </si>
+  <si>
+    <t>Наименование страницы имеет верное наименование "Форма регистрации"</t>
+  </si>
+  <si>
+    <t>Форма называется "Registration form"</t>
+  </si>
+  <si>
+    <t>Заголовок оформлен тегом &lt;h2&gt;</t>
+  </si>
+  <si>
+    <t>Рядом с незаполненным полем Name, E-mail, Password должно отображаться сообщение о необходимости ввода данных</t>
+  </si>
+  <si>
+    <t>Рядом с незаполненным полем Name, E-mail, Password  отображается " отображается: В</t>
+  </si>
+  <si>
+    <t>Если обязательное  поле не заполнено должно быть указано в сообщении об ошибке в нижней части экрана указано какое</t>
+  </si>
+  <si>
+    <t>Имеется лподсказка какие поля являются обязательными.</t>
+  </si>
+  <si>
+    <t>Поле Name</t>
+  </si>
+  <si>
+    <t>Поле позволяет создать  имя из 128-ми символов +</t>
+  </si>
+  <si>
+    <t>Поле позволяет создать  имя из 2-ми символов +</t>
+  </si>
+  <si>
+    <t>Поле позволяет создать имя из 60 символов +</t>
+  </si>
+  <si>
+    <t>Допустимые спецсимволы "-", "_",  ".", " ". +</t>
+  </si>
+  <si>
+    <t>Min имя не может содержать спецсимвол</t>
+  </si>
+  <si>
+    <t>Имя не может состоять из цифр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Имя не может состоять только из спецсимволов   "-", "_",  ".", " ". </t>
+  </si>
+  <si>
+    <t>Нельзя 1 символ</t>
+  </si>
+  <si>
+    <t>Нельзя 129 символов</t>
+  </si>
+  <si>
+    <r>
+      <t>Имя может</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> начинаться</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> с цифры</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Имя может </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>заканчиваться</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> цифрой</t>
+    </r>
+  </si>
+  <si>
+    <t>Имя может состоять из латинских символов  символов  +</t>
+  </si>
+  <si>
+    <t>Имя не может содержать симолы русского алфавита</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Имя не может содержать симолы не из </t>
+  </si>
+  <si>
+    <t>Нельзя ввести спецсимолы &lt;&gt;</t>
+  </si>
+  <si>
+    <t>Поле не позволяет ввести sql инъекцтю</t>
+  </si>
+  <si>
+    <t>Кнопка TAB переводит на следующее поле если нажата в момент фокуса на поле</t>
+  </si>
+  <si>
+    <t>Кнопка Энтер нажатая на любом поле равна кнопке сабмит</t>
+  </si>
+  <si>
+    <t>Нельзя символы не из ASCII</t>
+  </si>
+  <si>
+    <t>Iñtërnâtiônàlizætiøn☃💪</t>
+  </si>
+  <si>
+    <t>Остальные поля заполнены валидными значениями</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -25,13 +274,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,21 +331,52 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -98,7 +414,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -170,7 +486,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -343,37 +659,733 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="74.28515625" customWidth="1"/>
+    <col min="3" max="4" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.85546875" customWidth="1"/>
+    <col min="6" max="8" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>2</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>3</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>4</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>5</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>6</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>7</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>8</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>9</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>10</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>11</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>12</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>13</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>14</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>15</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>16</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>17</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>18</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>19</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>20</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>21</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>62</v>
+      </c>
+      <c r="D58" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="28" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="28" style="2"/>
+    <col min="6" max="6" width="32.85546875" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="28" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>1</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>1</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>1</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A9:B9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A3:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>17</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/HW_9_Form_testing.xlsx
+++ b/HW_9_Form_testing.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="111">
   <si>
     <t>MacOS 15.</t>
   </si>
@@ -94,18 +94,9 @@
     <t>Поле surname не является обязательным</t>
   </si>
   <si>
-    <t>Поля Name, E-mail, Password являются обязательными</t>
-  </si>
-  <si>
-    <t>При удачной регистрации отображается сообщение об удачной регистраци</t>
-  </si>
-  <si>
     <t>При удачной отправке  заполненные формы очищаются</t>
   </si>
   <si>
-    <t>При обновлении формы заполненные данные очищаются</t>
-  </si>
-  <si>
     <t>При сжатии окна браузера до минимально поля отображаются и доступны для ввода. Кнопка Submit доступна и отображается.</t>
   </si>
   <si>
@@ -115,9 +106,6 @@
     <t>При фокусе на поле исчезает плейсхолдеры</t>
   </si>
   <si>
-    <t>Плейсхолдеры имеют вид: Enter your name, Enter your Surname, Enter your email adress, Enter your password</t>
-  </si>
-  <si>
     <t>При фокусе на поле, поле подсвечивается по контуру голубым цветом</t>
   </si>
   <si>
@@ -142,12 +130,6 @@
     <t>Рядом с незаполненным полем Name, E-mail, Password  отображается " отображается: В</t>
   </si>
   <si>
-    <t>Если обязательное  поле не заполнено должно быть указано в сообщении об ошибке в нижней части экрана указано какое</t>
-  </si>
-  <si>
-    <t>Имеется лподсказка какие поля являются обязательными.</t>
-  </si>
-  <si>
     <t>Поле Name</t>
   </si>
   <si>
@@ -166,107 +148,218 @@
     <t>Min имя не может содержать спецсимвол</t>
   </si>
   <si>
-    <t>Имя не может состоять из цифр</t>
-  </si>
-  <si>
     <t xml:space="preserve">Имя не может состоять только из спецсимволов   "-", "_",  ".", " ". </t>
   </si>
   <si>
     <t>Нельзя 1 символ</t>
   </si>
   <si>
-    <t>Нельзя 129 символов</t>
-  </si>
-  <si>
-    <r>
-      <t>Имя может</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> начинаться</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> с цифры</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Имя может </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>заканчиваться</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> цифрой</t>
-    </r>
-  </si>
-  <si>
     <t>Имя может состоять из латинских символов  символов  +</t>
   </si>
   <si>
-    <t>Имя не может содержать симолы русского алфавита</t>
-  </si>
-  <si>
     <t xml:space="preserve">Имя не может содержать симолы не из </t>
   </si>
   <si>
-    <t>Нельзя ввести спецсимолы &lt;&gt;</t>
-  </si>
-  <si>
     <t>Поле не позволяет ввести sql инъекцтю</t>
   </si>
   <si>
     <t>Кнопка TAB переводит на следующее поле если нажата в момент фокуса на поле</t>
   </si>
   <si>
-    <t>Кнопка Энтер нажатая на любом поле равна кнопке сабмит</t>
-  </si>
-  <si>
-    <t>Нельзя символы не из ASCII</t>
-  </si>
-  <si>
     <t>Iñtërnâtiônàlizætiøn☃💪</t>
   </si>
   <si>
     <t>Остальные поля заполнены валидными значениями</t>
+  </si>
+  <si>
+    <t>Имя не может содержать симолы не из ASCII</t>
+  </si>
+  <si>
+    <t>Имена с ' и с " "</t>
+  </si>
+  <si>
+    <t>John James "Jimmy" O'Grady</t>
+  </si>
+  <si>
+    <t>Пример</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Имя не может начинаться и/или заканчиваться со спецсимвола </t>
+  </si>
+  <si>
+    <t>Кнопка Enter нажатая на любом поле равна кнопке сабмит</t>
+  </si>
+  <si>
+    <t>.Stive-</t>
+  </si>
+  <si>
+    <t>Не может быть русских символов</t>
+  </si>
+  <si>
+    <t>Vladислав</t>
+  </si>
+  <si>
+    <t>Vla-d Len.Burgin_25</t>
+  </si>
+  <si>
+    <t>Не может быть ненормативной лексики</t>
+  </si>
+  <si>
+    <t>Asshole, bliad</t>
+  </si>
+  <si>
+    <t>Можно вставлять значение из буфеа обмена</t>
+  </si>
+  <si>
+    <t>Не может быть эмоджи</t>
+  </si>
+  <si>
+    <t>👩👩👩👩👩👩👩‍🍳👩‍🍳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нельзя ввести спецсимолы тега   </t>
+  </si>
+  <si>
+    <t>&lt;bold&gt; и &lt;/bold&gt;</t>
+  </si>
+  <si>
+    <t>Для отправки формы использутся метод POST</t>
+  </si>
+  <si>
+    <t>AmBassador</t>
+  </si>
+  <si>
+    <t>Доступно использование верхнего и нижнего региста, поле нерегистрозависимо</t>
+  </si>
+  <si>
+    <t>В БД сохранено ambassador</t>
+  </si>
+  <si>
+    <t>Имя может начинаться и/или заканчиваться цифрой</t>
+  </si>
+  <si>
+    <t>31Yolochka12</t>
+  </si>
+  <si>
+    <t>Нельзя более двух специсмв подряд</t>
+  </si>
+  <si>
+    <t>Имя должно состоять min из двух букв (латинского алфавита, может содержать цифры, и спецсимволы   "-", "_",  ".", " ". +. Может начинаться только с буквы или цифры</t>
+  </si>
+  <si>
+    <t>Поле не может быть пустым</t>
+  </si>
+  <si>
+    <t>Уникальность пользователя реализована по полю e-mail</t>
+  </si>
+  <si>
+    <t>В DevTools нет ошибок в результате загрузки формы</t>
+  </si>
+  <si>
+    <t>Jho_ nie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нельзя создать имя со 129 символами.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нельзя создать имя со 256 символами.  </t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>Имя может начинаться с цифры и заканчмваться цифрой</t>
+  </si>
+  <si>
+    <t>Имя может состоять из  только цифр</t>
+  </si>
+  <si>
+    <t>Li</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet. consectetur adipiscing elit. sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.Lorem</t>
+  </si>
+  <si>
+    <t>01234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123</t>
+  </si>
+  <si>
+    <t>Ввод большого числа символов не приводит к сбою на сайте, выдается сообщние об  ошибке</t>
+  </si>
+  <si>
+    <t>L.</t>
+  </si>
+  <si>
+    <t>Имеется подсказка какие поля обязательны для заполнения</t>
+  </si>
+  <si>
+    <t>Проверить название поля</t>
+  </si>
+  <si>
+    <t>Проверить плэйсхолдер</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Плейсхолдеры имеют вид: Enter your name, </t>
+  </si>
+  <si>
+    <t>Соощение об успешной регистрации имеет вид: Success! Hello userName userSurname</t>
+  </si>
+  <si>
+    <t>сделать глазик</t>
+  </si>
+  <si>
+    <t>Если обязательное  поле не заполнено должно быть указано в сообщении об ошибке в нижней части экрана указано какое именно.</t>
+  </si>
+  <si>
+    <t>Registration form</t>
+  </si>
+  <si>
+    <t>ITCareerToday web form</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>Demo form</t>
+  </si>
+  <si>
+    <t>Обязательные поля отмечены * и имется комментарий к *</t>
+  </si>
+  <si>
+    <t>нет</t>
+  </si>
+  <si>
+    <t>Поле Name является обязательныс</t>
+  </si>
+  <si>
+    <t>В нижней части экрана присутствует кнопка Submit</t>
+  </si>
+  <si>
+    <t>Кнопка Submit затемняется при наведении</t>
+  </si>
+  <si>
+    <t xml:space="preserve">При удачной регистрации отображается сообщение об удачной регистраци Success! Hello userName userSurname </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отображается сообщение Success! Hello userName userSurname </t>
+  </si>
+  <si>
+    <t>Заполнить обязательные поля валидными данными. Нажать Submit или Enter</t>
+  </si>
+  <si>
+    <t>Заполненные поля очистились</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,8 +391,31 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="2"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -308,18 +424,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -327,43 +455,170 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -660,370 +915,626 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:H58"/>
+  <dimension ref="A3:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="74.28515625" customWidth="1"/>
-    <col min="3" max="4" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.85546875" customWidth="1"/>
-    <col min="6" max="8" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="71.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:9" s="18" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="G3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="H3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="I3" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="9" t="s">
+    <row r="4" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7">
+      <c r="D4" s="10"/>
+      <c r="G4" s="19">
         <v>0</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+    </row>
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="8" t="s">
+      <c r="C5" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>3</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>6</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>7</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>8</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>9</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>10</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>11</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>12</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>13</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>14</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>15</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>16</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>17</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>18</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>19</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>20</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C24" s="15"/>
+    </row>
+    <row r="25" spans="1:9" s="18" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="12" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="C26" s="20" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
+      <c r="D26" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B28" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="8" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="7"/>
+      <c r="C29" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" s="23">
+        <v>122234</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="7"/>
+      <c r="C30" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="13" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="B31" s="7"/>
+      <c r="C31" s="22" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>2</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>3</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>4</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>5</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>6</v>
-      </c>
-      <c r="B11" s="8" t="s">
+      <c r="E31" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="7"/>
+      <c r="C32" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="7"/>
+      <c r="C33" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="7"/>
+      <c r="C34" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="7"/>
+      <c r="C35" s="22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="7"/>
+      <c r="C36" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B37" s="7"/>
+      <c r="C37" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="7"/>
+      <c r="C38" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="7"/>
+      <c r="C39" s="22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="7"/>
+      <c r="C40" s="22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="7"/>
+      <c r="C41" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="7"/>
+      <c r="C42" s="24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="7"/>
+      <c r="C43" s="25"/>
+    </row>
+    <row r="44" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="7"/>
+      <c r="C44" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="26"/>
+      <c r="C46" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="26"/>
+      <c r="C47" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="26"/>
+      <c r="C48" s="22"/>
+    </row>
+    <row r="49" spans="2:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="26"/>
+      <c r="C49" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="26"/>
+      <c r="C50" s="22"/>
+    </row>
+    <row r="51" spans="2:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="26"/>
+      <c r="C51" s="22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="26"/>
+      <c r="C52" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="26"/>
+      <c r="C53" s="22"/>
+    </row>
+    <row r="54" spans="2:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="26"/>
+      <c r="C54" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="26"/>
+      <c r="C55" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="26"/>
+      <c r="C56" s="22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="26"/>
+      <c r="C57" s="22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="26"/>
+      <c r="C58" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="26"/>
+      <c r="C59" s="22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="26"/>
+      <c r="C60" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="26"/>
+      <c r="C61" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="26"/>
+      <c r="C62" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="26"/>
+      <c r="C63" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" s="13" customFormat="1" ht="190.5" x14ac:dyDescent="0.25">
+      <c r="B64" s="26"/>
+      <c r="C64" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C65" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C68" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>7</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>8</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>9</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>10</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>11</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>12</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
-        <v>13</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
-        <v>14</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
-        <v>15</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
-        <v>16</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
-        <v>17</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
-        <v>18</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
-        <v>19</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
-        <v>20</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
-        <v>21</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>62</v>
-      </c>
-      <c r="D58" t="s">
-        <v>63</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B28:B44"/>
+    <mergeCell ref="B45:B64"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H5:H535">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH("fail",H5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH("pass",H1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -1094,255 +1605,255 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="39" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" ht="39" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="39" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>1</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="39" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>1</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" ht="39" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>1</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="39" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>1</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="39" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>1</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="39" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>1</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1359,10 +1870,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A3:E3"/>
+  <dimension ref="A2:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1372,17 +1883,38 @@
     <col min="5" max="5" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>54</v>
+      </c>
+    </row>
     <row r="3" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>17</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8" t="s">
-        <v>40</v>
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/HW_9_Form_testing.xlsx
+++ b/HW_9_Form_testing.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="115">
   <si>
     <t>MacOS 15.</t>
   </si>
@@ -350,6 +350,18 @@
   </si>
   <si>
     <t>Заполненные поля очистились</t>
+  </si>
+  <si>
+    <t>abdu1_O-Rel Air.</t>
+  </si>
+  <si>
+    <t>Может начинаться с цифпы</t>
+  </si>
+  <si>
+    <t>Может заканч с цифпы</t>
+  </si>
+  <si>
+    <t>Имя может состоять из двух цифр</t>
   </si>
 </sst>
 </file>
@@ -475,7 +487,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -490,76 +502,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -567,7 +582,7 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -575,36 +590,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -915,10 +900,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:I68"/>
+  <dimension ref="A3:I75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -935,39 +920,39 @@
     <col min="10" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" s="18" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:9" s="16" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="19" t="s">
+    <row r="4" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="G4" s="19">
+      <c r="D4" s="8"/>
+      <c r="G4" s="17">
         <v>0</v>
       </c>
     </row>
@@ -975,10 +960,10 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="13" t="s">
         <v>33</v>
       </c>
       <c r="G5" s="5" t="s">
@@ -992,13 +977,13 @@
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="13" t="s">
         <v>34</v>
       </c>
       <c r="H6" s="5" t="s">
@@ -1009,7 +994,7 @@
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="13" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="5" t="s">
@@ -1043,7 +1028,7 @@
       <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="13" t="s">
         <v>22</v>
       </c>
       <c r="F9" s="5" t="s">
@@ -1060,7 +1045,7 @@
       <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="13" t="s">
         <v>23</v>
       </c>
       <c r="F10" s="5" t="s">
@@ -1077,7 +1062,7 @@
       <c r="A11" s="5">
         <v>8</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="13" t="s">
         <v>107</v>
       </c>
       <c r="F11" s="5" t="s">
@@ -1094,7 +1079,7 @@
       <c r="A12" s="5">
         <v>9</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="13" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -1114,7 +1099,7 @@
       <c r="A13" s="5">
         <v>10</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="13" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1122,7 +1107,7 @@
       <c r="A14" s="5">
         <v>11</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="13" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1130,7 +1115,7 @@
       <c r="A15" s="5">
         <v>12</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="13" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1138,7 +1123,7 @@
       <c r="A16" s="5">
         <v>13</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="13" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1146,7 +1131,7 @@
       <c r="A17" s="5">
         <v>14</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="13" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1154,7 +1139,7 @@
       <c r="A18" s="5">
         <v>15</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="13" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1162,7 +1147,7 @@
       <c r="A19" s="5">
         <v>16</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="13" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1170,7 +1155,7 @@
       <c r="A20" s="5">
         <v>17</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="13" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1178,7 +1163,7 @@
       <c r="A21" s="5">
         <v>18</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="13" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1186,7 +1171,7 @@
       <c r="A22" s="5">
         <v>19</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="13" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1194,344 +1179,389 @@
       <c r="A23" s="5">
         <v>20</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="13" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C24" s="15"/>
-    </row>
-    <row r="25" spans="1:9" s="18" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+      <c r="C24" s="13"/>
+    </row>
+    <row r="25" spans="1:9" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="16" t="s">
+      <c r="B25" s="9"/>
+      <c r="C25" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="F25" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H25" s="11" t="s">
+      <c r="H25" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I25" s="11" t="s">
+      <c r="I25" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="12" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="C26" s="20" t="s">
+    <row r="26" spans="1:9" s="10" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="C26" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="27" t="s">
+    <row r="27" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="24" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B28" s="7" t="s">
+    <row r="28" spans="1:9" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B28" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="E28" s="21" t="s">
+      <c r="E28" s="19" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="8" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="7"/>
-      <c r="C29" s="22" t="s">
+    <row r="29" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="27"/>
+      <c r="C29" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="E29" s="19"/>
+    </row>
+    <row r="30" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="27"/>
+      <c r="C30" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="E30" s="19"/>
+    </row>
+    <row r="31" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="27"/>
+      <c r="C31" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E31" s="19"/>
+    </row>
+    <row r="32" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="27"/>
+      <c r="C32" s="30"/>
+      <c r="E32" s="19"/>
+    </row>
+    <row r="33" spans="2:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="27"/>
+      <c r="C33" s="30"/>
+      <c r="E33" s="19"/>
+    </row>
+    <row r="34" spans="2:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="27"/>
+      <c r="C34" s="30"/>
+      <c r="E34" s="19"/>
+    </row>
+    <row r="35" spans="2:7" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="27"/>
+      <c r="C35" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E35" s="21">
         <v>122234</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="7"/>
-      <c r="C30" s="22" t="s">
+    <row r="36" spans="2:7" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="27"/>
+      <c r="C36" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36" s="21">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="27"/>
+      <c r="C37" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E37" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="13" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="B31" s="7"/>
-      <c r="C31" s="22" t="s">
+    <row r="38" spans="2:7" s="11" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="B38" s="27"/>
+      <c r="C38" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E38" s="11" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="7"/>
-      <c r="C32" s="22" t="s">
+    <row r="39" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="27"/>
+      <c r="C39" s="20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="7"/>
-      <c r="C33" s="22" t="s">
+    <row r="40" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="27"/>
+      <c r="C40" s="20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="7"/>
-      <c r="C34" s="22" t="s">
+    <row r="41" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="27"/>
+      <c r="C41" s="20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="7"/>
-      <c r="C35" s="22" t="s">
+    <row r="42" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="27"/>
+      <c r="C42" s="20" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="7"/>
-      <c r="C36" s="22" t="s">
+    <row r="43" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="27"/>
+      <c r="C43" s="20" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="2:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B37" s="7"/>
-      <c r="C37" s="22" t="s">
+    <row r="44" spans="2:7" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B44" s="27"/>
+      <c r="C44" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="E44" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="F44" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="G37" s="13" t="s">
+      <c r="G44" s="11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="7"/>
-      <c r="C38" s="22" t="s">
+    <row r="45" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="27"/>
+      <c r="C45" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="E38" s="13" t="s">
+      <c r="E45" s="11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="7"/>
-      <c r="C39" s="22" t="s">
+    <row r="46" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="27"/>
+      <c r="C46" s="20" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="7"/>
-      <c r="C40" s="22" t="s">
+    <row r="47" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="27"/>
+      <c r="C47" s="20" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="7"/>
-      <c r="C41" s="15" t="s">
+    <row r="48" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="27"/>
+      <c r="C48" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="7"/>
-      <c r="C42" s="24" t="s">
+    <row r="49" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="27"/>
+      <c r="C49" s="22" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="2:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="7"/>
-      <c r="C43" s="25"/>
-    </row>
-    <row r="44" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="7"/>
-      <c r="C44" s="15" t="s">
+    <row r="50" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="27"/>
+      <c r="C50" s="23"/>
+    </row>
+    <row r="51" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="27"/>
+      <c r="C51" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="26" t="s">
+    <row r="52" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="C45" s="22" t="s">
+      <c r="C52" s="20" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="26"/>
-      <c r="C46" s="22" t="s">
+    <row r="53" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="28"/>
+      <c r="C53" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="E46" s="13" t="s">
+      <c r="E53" s="11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="26"/>
-      <c r="C47" s="22" t="s">
+    <row r="54" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="28"/>
+      <c r="C54" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="E47" s="13" t="s">
+      <c r="E54" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="26"/>
-      <c r="C48" s="22"/>
-    </row>
-    <row r="49" spans="2:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="26"/>
-      <c r="C49" s="22" t="s">
+    <row r="55" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="28"/>
+      <c r="C55" s="20"/>
+    </row>
+    <row r="56" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="28"/>
+      <c r="C56" s="20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="2:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="26"/>
-      <c r="C50" s="22"/>
-    </row>
-    <row r="51" spans="2:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="26"/>
-      <c r="C51" s="22" t="s">
+    <row r="57" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="28"/>
+      <c r="C57" s="20"/>
+    </row>
+    <row r="58" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="28"/>
+      <c r="C58" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="2:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="26"/>
-      <c r="C52" s="22" t="s">
+    <row r="59" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="28"/>
+      <c r="C59" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E52" s="13" t="s">
+      <c r="E59" s="11" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="2:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="26"/>
-      <c r="C53" s="22"/>
-    </row>
-    <row r="54" spans="2:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="26"/>
-      <c r="C54" s="22" t="s">
+    <row r="60" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="28"/>
+      <c r="C60" s="20"/>
+    </row>
+    <row r="61" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="28"/>
+      <c r="C61" s="20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="2:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="26"/>
-      <c r="C55" s="22" t="s">
+    <row r="62" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="28"/>
+      <c r="C62" s="20" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="56" spans="2:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="26"/>
-      <c r="C56" s="22" t="s">
+    <row r="63" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="28"/>
+      <c r="C63" s="20" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="2:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="26"/>
-      <c r="C57" s="22" t="s">
+    <row r="64" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="28"/>
+      <c r="C64" s="20" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="2:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="26"/>
-      <c r="C58" s="22" t="s">
+    <row r="65" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="28"/>
+      <c r="C65" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="E58" s="13" t="s">
+      <c r="E65" s="11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="2:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="26"/>
-      <c r="C59" s="22" t="s">
+    <row r="66" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="28"/>
+      <c r="C66" s="20" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="2:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="26"/>
-      <c r="C60" s="22" t="s">
+    <row r="67" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="28"/>
+      <c r="C67" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="E60" s="13" t="s">
+      <c r="E67" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="61" spans="2:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="26"/>
-      <c r="C61" s="22" t="s">
+    <row r="68" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="28"/>
+      <c r="C68" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="E61" s="13" t="s">
+      <c r="E68" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="2:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="26"/>
-      <c r="C62" s="22" t="s">
+    <row r="69" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="28"/>
+      <c r="C69" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="E62" s="13" t="s">
+      <c r="E69" s="11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="2:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="26"/>
-      <c r="C63" s="22" t="s">
+    <row r="70" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="28"/>
+      <c r="C70" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="E63" s="13" t="s">
+      <c r="E70" s="11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="2:5" s="13" customFormat="1" ht="190.5" x14ac:dyDescent="0.25">
-      <c r="B64" s="26"/>
-      <c r="C64" s="22" t="s">
+    <row r="71" spans="2:5" s="11" customFormat="1" ht="190.5" x14ac:dyDescent="0.25">
+      <c r="B71" s="28"/>
+      <c r="C71" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="E64" s="14" t="s">
+      <c r="E71" s="12" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="3:3" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="28" t="s">
+    <row r="72" spans="2:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C72" s="25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C68" s="17" t="s">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C75" s="15" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B28:B44"/>
-    <mergeCell ref="B45:B64"/>
+    <mergeCell ref="B28:B51"/>
+    <mergeCell ref="B52:B71"/>
   </mergeCells>
-  <conditionalFormatting sqref="H5:H535">
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="fail">
+  <conditionalFormatting sqref="H5:H542">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",H5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1606,10 +1636,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
@@ -1736,10 +1766,10 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>

--- a/HW_9_Form_testing.xlsx
+++ b/HW_9_Form_testing.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -12,12 +12,12 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
     <sheet name="impr" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="143">
   <si>
     <t>MacOS 15.</t>
   </si>
@@ -85,9 +85,6 @@
     <t>Тайтл вкладки в браузере имеет наименование "Форма регистрации"</t>
   </si>
   <si>
-    <t>Присутствует кнопка "Submit"</t>
-  </si>
-  <si>
     <t>Кнопка "Submit" меняет цвет при наведении</t>
   </si>
   <si>
@@ -115,12 +112,6 @@
     <t>Текст кнопки Submit расположен по центру кнопки</t>
   </si>
   <si>
-    <t>Наименование страницы имеет верное наименование "Форма регистрации"</t>
-  </si>
-  <si>
-    <t>Форма называется "Registration form"</t>
-  </si>
-  <si>
     <t>Заголовок оформлен тегом &lt;h2&gt;</t>
   </si>
   <si>
@@ -160,21 +151,12 @@
     <t xml:space="preserve">Имя не может содержать симолы не из </t>
   </si>
   <si>
-    <t>Поле не позволяет ввести sql инъекцтю</t>
-  </si>
-  <si>
-    <t>Кнопка TAB переводит на следующее поле если нажата в момент фокуса на поле</t>
-  </si>
-  <si>
     <t>Iñtërnâtiônàlizætiøn☃💪</t>
   </si>
   <si>
     <t>Остальные поля заполнены валидными значениями</t>
   </si>
   <si>
-    <t>Имя не может содержать симолы не из ASCII</t>
-  </si>
-  <si>
     <t>Имена с ' и с " "</t>
   </si>
   <si>
@@ -187,9 +169,6 @@
     <t xml:space="preserve">Имя не может начинаться и/или заканчиваться со спецсимвола </t>
   </si>
   <si>
-    <t>Кнопка Enter нажатая на любом поле равна кнопке сабмит</t>
-  </si>
-  <si>
     <t>.Stive-</t>
   </si>
   <si>
@@ -292,9 +271,6 @@
     <t>L.</t>
   </si>
   <si>
-    <t>Имеется подсказка какие поля обязательны для заполнения</t>
-  </si>
-  <si>
     <t>Проверить название поля</t>
   </si>
   <si>
@@ -340,9 +316,6 @@
     <t>Кнопка Submit затемняется при наведении</t>
   </si>
   <si>
-    <t xml:space="preserve">При удачной регистрации отображается сообщение об удачной регистраци Success! Hello userName userSurname </t>
-  </si>
-  <si>
     <t xml:space="preserve">Отображается сообщение Success! Hello userName userSurname </t>
   </si>
   <si>
@@ -362,6 +335,166 @@
   </si>
   <si>
     <t>Имя может состоять из двух цифр</t>
+  </si>
+  <si>
+    <t>Поле не позволяет ввести sql инъекцию</t>
+  </si>
+  <si>
+    <t>Имя не может содержать символы не из ASCII</t>
+  </si>
+  <si>
+    <t>Наименование страницы</t>
+  </si>
+  <si>
+    <t>Стрница называется "Registration form"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Поле подтверждения пароля </t>
+  </si>
+  <si>
+    <t>Присутствует поле для повторного ввода пароля</t>
+  </si>
+  <si>
+    <t>Кнопка "Submit"</t>
+  </si>
+  <si>
+    <t>Подсказка какие поля обязательны для заполнения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сообщение об удачной регистраци Success! Hello userName userSurname </t>
+  </si>
+  <si>
+    <t xml:space="preserve">При удачной регистрации отображается сообщение Success! Hello userName userSurname </t>
+  </si>
+  <si>
+    <t>Метод для отправки данных формы на сервер</t>
+  </si>
+  <si>
+    <t>Страница адаптирована для работы при максимально сжатом окне браузера</t>
+  </si>
+  <si>
+    <t>После обновления страницы исчезает сообщение об ошибке.</t>
+  </si>
+  <si>
+    <t>Сообщение об ошибке не исчезает</t>
+  </si>
+  <si>
+    <t>не сообщается</t>
+  </si>
+  <si>
+    <t>Оформление наименования кнопки Submit</t>
+  </si>
+  <si>
+    <t>Текст кнопки Submit не расположен по центру кнопки</t>
+  </si>
+  <si>
+    <t>уникальность по полю e-mail не реализована</t>
+  </si>
+  <si>
+    <t>Tester: Vadim Marchenko</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OS:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Microsoft Windows 10 Pro, Version 10.0.18363, Build 18363                 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Browser:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Version 102.0.5005.115 (Official Build) (64-bit)</t>
+    </r>
+  </si>
+  <si>
+    <t>Ошибки в  DevTools при загрузке формы</t>
+  </si>
+  <si>
+    <t>Информирование если не заполнено одно/несколько из обязательных полей, какое именно.</t>
+  </si>
+  <si>
+    <t>qoremipsumdolorsitametaconsecteturadipiscingelitdseddoeiusmodtemporncididuntutafeikboadahgdhjreetdoloremagnaaliquaaaoremdfrekloi</t>
+  </si>
+  <si>
+    <t>li</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min 2 (двух)  латинских символов </t>
+  </si>
+  <si>
+    <t xml:space="preserve">max из 128-ми  латинских символов </t>
+  </si>
+  <si>
+    <t>0123456789012345678901234567890123456789012345678901234567890123</t>
+  </si>
+  <si>
+    <t>dff dff.df_ff4555ee</t>
+  </si>
+  <si>
+    <t>Поле регистронезависимо</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>В БД сохранено Daniel</t>
+  </si>
+  <si>
+    <t>В БД сохранено daniel</t>
+  </si>
+  <si>
+    <t>Поле является обязательным</t>
+  </si>
+  <si>
+    <t>Нельзя зарегистрироваться c незаполненным полем либо полем заполненным пробелами</t>
+  </si>
+  <si>
+    <t>Заполненное пробелами принимается системой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Только цифры.  64 символа. </t>
+  </si>
+  <si>
+    <t>Может содержать Спецсимволы "-", "_",  ".", " "  и в цифры</t>
   </si>
 </sst>
 </file>
@@ -371,7 +504,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -426,8 +559,36 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -455,6 +616,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,7 +660,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -502,68 +675,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -574,15 +765,67 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -900,662 +1143,900 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:I75"/>
+  <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="71.42578125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="28.7109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" style="5" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="6.85546875" style="22" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="73" style="9" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="22" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" style="22" customWidth="1"/>
+    <col min="6" max="6" width="43" style="22" customWidth="1"/>
+    <col min="7" max="7" width="36.140625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" style="22" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" s="16" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+    <row r="1" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="32" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="19" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="17" t="s">
+    <row r="4" spans="1:9" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="G4" s="17">
+      <c r="D4" s="21"/>
+      <c r="G4" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+    <row r="5" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
         <v>1</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="C5" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="22">
+        <v>2</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22">
+        <v>3</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22">
+        <v>4</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22">
+        <v>5</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22">
+        <v>6</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22">
+        <v>7</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22">
+        <v>8</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H12" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="22">
+        <v>9</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="22" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="F13" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="22">
+        <v>10</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22">
+        <v>11</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="22">
+        <v>12</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="22">
+        <v>13</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="22">
+        <v>14</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="22">
+        <v>15</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="22">
+        <v>16</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="22">
+        <v>17</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="22">
+        <v>18</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="19" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="D24" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="23" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>3</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>4</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="D25" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:9" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" spans="1:9" s="24" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E27" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" spans="1:9" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="C28" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E28" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" spans="1:9" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" spans="1:9" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="G30" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="H30" s="22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="H31" s="28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="28"/>
+    </row>
+    <row r="33" spans="2:8" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="28"/>
+    </row>
+    <row r="34" spans="2:8" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="28"/>
+    </row>
+    <row r="35" spans="2:8" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="28"/>
+    </row>
+    <row r="36" spans="2:8" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="11"/>
+      <c r="G36" s="11"/>
+    </row>
+    <row r="37" spans="2:8" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="11"/>
+      <c r="G37" s="11"/>
+    </row>
+    <row r="38" spans="2:8" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="11"/>
+      <c r="G38" s="11"/>
+    </row>
+    <row r="39" spans="2:8" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="11"/>
+      <c r="G39" s="11"/>
+    </row>
+    <row r="40" spans="2:8" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G40" s="11"/>
+    </row>
+    <row r="41" spans="2:8" s="25" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E41" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="G41" s="27"/>
+    </row>
+    <row r="42" spans="2:8" s="25" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="33"/>
+      <c r="C42" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="E42" s="26"/>
+      <c r="G42" s="27"/>
+    </row>
+    <row r="43" spans="2:8" s="25" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="33"/>
+      <c r="C43" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>6</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="5" t="s">
+      <c r="E43" s="26"/>
+      <c r="G43" s="27"/>
+    </row>
+    <row r="44" spans="2:8" s="25" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="33"/>
+      <c r="C44" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="E44" s="26"/>
+      <c r="G44" s="27"/>
+    </row>
+    <row r="45" spans="2:8" s="25" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="33"/>
+      <c r="C45" s="13"/>
+      <c r="E45" s="26"/>
+      <c r="G45" s="27"/>
+    </row>
+    <row r="46" spans="2:8" s="25" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="33"/>
+      <c r="C46" s="13"/>
+      <c r="E46" s="26"/>
+      <c r="G46" s="27"/>
+    </row>
+    <row r="47" spans="2:8" s="25" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="33"/>
+      <c r="C47" s="13"/>
+      <c r="E47" s="26"/>
+      <c r="G47" s="27"/>
+    </row>
+    <row r="48" spans="2:8" s="25" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="33"/>
+      <c r="C48" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E48" s="27">
+        <v>122234</v>
+      </c>
+      <c r="G48" s="27"/>
+    </row>
+    <row r="49" spans="2:7" s="25" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="33"/>
+      <c r="C49" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>7</v>
-      </c>
-      <c r="C10" s="13" t="s">
+      <c r="E49" s="27">
+        <v>55</v>
+      </c>
+      <c r="G49" s="27"/>
+    </row>
+    <row r="50" spans="2:7" s="25" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="33"/>
+      <c r="C50" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="G50" s="27"/>
+    </row>
+    <row r="51" spans="2:7" s="28" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="33"/>
+      <c r="C51" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E51" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="G51" s="31"/>
+    </row>
+    <row r="52" spans="2:7" s="28" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="33"/>
+      <c r="C52" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G52" s="31"/>
+    </row>
+    <row r="53" spans="2:7" s="28" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="33"/>
+      <c r="C53" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G53" s="31"/>
+    </row>
+    <row r="54" spans="2:7" s="28" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="33"/>
+      <c r="C54" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G54" s="31"/>
+    </row>
+    <row r="55" spans="2:7" s="28" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="33"/>
+      <c r="C55" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G55" s="31"/>
+    </row>
+    <row r="56" spans="2:7" s="28" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="33"/>
+      <c r="C56" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G56" s="31"/>
+    </row>
+    <row r="57" spans="2:7" s="28" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="33"/>
+      <c r="C57" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E57" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F57" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G57" s="31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" s="28" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="33"/>
+      <c r="C58" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E58" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="G58" s="31"/>
+    </row>
+    <row r="59" spans="2:7" s="28" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="33"/>
+      <c r="C59" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G59" s="31"/>
+    </row>
+    <row r="60" spans="2:7" s="28" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="33"/>
+      <c r="C60" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G60" s="31"/>
+    </row>
+    <row r="61" spans="2:7" s="28" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="33"/>
+      <c r="C61" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G61" s="31"/>
+    </row>
+    <row r="62" spans="2:7" s="28" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="33"/>
+      <c r="C62" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G62" s="31"/>
+    </row>
+    <row r="63" spans="2:7" s="25" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="33"/>
+      <c r="C63" s="16"/>
+      <c r="G63" s="27"/>
+    </row>
+    <row r="64" spans="2:7" s="28" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="33"/>
+      <c r="C64" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G64" s="31"/>
+    </row>
+    <row r="65" spans="2:7" s="28" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G65" s="31"/>
+    </row>
+    <row r="66" spans="2:7" s="28" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="34"/>
+      <c r="C66" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E66" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="G66" s="31"/>
+    </row>
+    <row r="67" spans="2:7" s="28" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="34"/>
+      <c r="C67" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E67" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="G67" s="31"/>
+    </row>
+    <row r="68" spans="2:7" s="28" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="34"/>
+      <c r="C68" s="14"/>
+      <c r="G68" s="31"/>
+    </row>
+    <row r="69" spans="2:7" s="28" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="34"/>
+      <c r="C69" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G69" s="31"/>
+    </row>
+    <row r="70" spans="2:7" s="28" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="34"/>
+      <c r="C70" s="14"/>
+      <c r="G70" s="31"/>
+    </row>
+    <row r="71" spans="2:7" s="28" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="34"/>
+      <c r="C71" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G71" s="31"/>
+    </row>
+    <row r="72" spans="2:7" s="28" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="34"/>
+      <c r="C72" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E72" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="G72" s="31"/>
+    </row>
+    <row r="73" spans="2:7" s="28" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="34"/>
+      <c r="C73" s="14"/>
+      <c r="G73" s="31"/>
+    </row>
+    <row r="74" spans="2:7" s="28" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="34"/>
+      <c r="C74" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G74" s="31"/>
+    </row>
+    <row r="75" spans="2:7" s="28" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="34"/>
+      <c r="C75" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G75" s="31"/>
+    </row>
+    <row r="76" spans="2:7" s="28" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="34"/>
+      <c r="C76" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="G76" s="31"/>
+    </row>
+    <row r="77" spans="2:7" s="28" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="34"/>
+      <c r="C77" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G77" s="31"/>
+    </row>
+    <row r="78" spans="2:7" s="28" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="34"/>
+      <c r="C78" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E78" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="G78" s="31"/>
+    </row>
+    <row r="79" spans="2:7" s="28" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="34"/>
+      <c r="C79" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="G79" s="31"/>
+    </row>
+    <row r="80" spans="2:7" s="28" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="34"/>
+      <c r="C80" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E80" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G80" s="31"/>
+    </row>
+    <row r="81" spans="2:7" s="28" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="34"/>
+      <c r="C81" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E81" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G81" s="31"/>
+    </row>
+    <row r="82" spans="2:7" s="28" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="34"/>
+      <c r="C82" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E82" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="G82" s="31"/>
+    </row>
+    <row r="83" spans="2:7" s="28" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="34"/>
+      <c r="C83" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E83" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="G83" s="31"/>
+    </row>
+    <row r="84" spans="2:7" s="28" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="34"/>
+      <c r="C84" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E84" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="G84" s="31"/>
+    </row>
+    <row r="85" spans="2:7" s="30" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C85" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G85" s="17"/>
+    </row>
+    <row r="88" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C88" s="18" t="s">
         <v>23</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>8</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>9</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>10</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>11</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>12</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>13</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>14</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>15</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>16</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>17</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>18</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>19</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>20</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C24" s="13"/>
-    </row>
-    <row r="25" spans="1:9" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="10" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="C26" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="24" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B28" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="27"/>
-      <c r="C29" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="E29" s="19"/>
-    </row>
-    <row r="30" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="27"/>
-      <c r="C30" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="E30" s="19"/>
-    </row>
-    <row r="31" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="27"/>
-      <c r="C31" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="E31" s="19"/>
-    </row>
-    <row r="32" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="27"/>
-      <c r="C32" s="30"/>
-      <c r="E32" s="19"/>
-    </row>
-    <row r="33" spans="2:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="27"/>
-      <c r="C33" s="30"/>
-      <c r="E33" s="19"/>
-    </row>
-    <row r="34" spans="2:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="27"/>
-      <c r="C34" s="30"/>
-      <c r="E34" s="19"/>
-    </row>
-    <row r="35" spans="2:7" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="27"/>
-      <c r="C35" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="E35" s="21">
-        <v>122234</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="27"/>
-      <c r="C36" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="E36" s="21">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="27"/>
-      <c r="C37" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" s="11" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="B38" s="27"/>
-      <c r="C38" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="27"/>
-      <c r="C39" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="27"/>
-      <c r="C40" s="20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="27"/>
-      <c r="C41" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="27"/>
-      <c r="C42" s="20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="27"/>
-      <c r="C43" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B44" s="27"/>
-      <c r="C44" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="27"/>
-      <c r="C45" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="27"/>
-      <c r="C46" s="20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="27"/>
-      <c r="C47" s="20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="27"/>
-      <c r="C48" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="27"/>
-      <c r="C49" s="22" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="27"/>
-      <c r="C50" s="23"/>
-    </row>
-    <row r="51" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="27"/>
-      <c r="C51" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="C52" s="20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="28"/>
-      <c r="C53" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="28"/>
-      <c r="C54" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="28"/>
-      <c r="C55" s="20"/>
-    </row>
-    <row r="56" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="28"/>
-      <c r="C56" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="28"/>
-      <c r="C57" s="20"/>
-    </row>
-    <row r="58" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="28"/>
-      <c r="C58" s="20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="28"/>
-      <c r="C59" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="28"/>
-      <c r="C60" s="20"/>
-    </row>
-    <row r="61" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="28"/>
-      <c r="C61" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="28"/>
-      <c r="C62" s="20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="28"/>
-      <c r="C63" s="20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="28"/>
-      <c r="C64" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="28"/>
-      <c r="C65" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="E65" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="28"/>
-      <c r="C66" s="20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="28"/>
-      <c r="C67" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="E67" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="28"/>
-      <c r="C68" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="E68" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="28"/>
-      <c r="C69" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="E69" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="28"/>
-      <c r="C70" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E70" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" s="11" customFormat="1" ht="190.5" x14ac:dyDescent="0.25">
-      <c r="B71" s="28"/>
-      <c r="C71" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="E71" s="12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C72" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C75" s="15" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B28:B51"/>
-    <mergeCell ref="B52:B71"/>
+    <mergeCell ref="B41:B64"/>
+    <mergeCell ref="B65:B84"/>
   </mergeCells>
-  <conditionalFormatting sqref="H5:H542">
+  <conditionalFormatting sqref="H5:H555">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",H5)))</formula>
     </cfRule>
@@ -1574,7 +2055,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -1586,8 +2069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1636,10 +2119,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
@@ -1766,10 +2249,10 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="29"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
@@ -1902,7 +2385,7 @@
   </sheetPr>
   <dimension ref="A2:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1915,7 +2398,7 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="135" x14ac:dyDescent="0.25">
@@ -1923,12 +2406,12 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1936,15 +2419,15 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
